--- a/Produtos.xlsx
+++ b/Produtos.xlsx
@@ -1,47 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Python\Downloads\Gabaritos Intensivao\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44C263-54D3-4324-8C0E-2F29BB667366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27120" yWindow="7890" windowWidth="17280" windowHeight="9440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Produtos</t>
   </si>
   <si>
+    <t>Preço Original</t>
+  </si>
+  <si>
     <t>Moeda</t>
   </si>
   <si>
     <t>Cotação</t>
   </si>
   <si>
+    <t>Preço de Compra</t>
+  </si>
+  <si>
+    <t>Margem</t>
+  </si>
+  <si>
+    <t>Preço de Venda</t>
+  </si>
+  <si>
     <t>Câmera Canon</t>
   </si>
   <si>
@@ -72,23 +70,53 @@
     <t>Ouro</t>
   </si>
   <si>
-    <t>Margem</t>
-  </si>
-  <si>
-    <t>Preço Original</t>
-  </si>
-  <si>
-    <t>Preço de Compra</t>
-  </si>
-  <si>
-    <t>Preço de Venda</t>
+    <t>R$ 5,174.45</t>
+  </si>
+  <si>
+    <t>R$ 25,241.79</t>
+  </si>
+  <si>
+    <t>R$ 4,657.00</t>
+  </si>
+  <si>
+    <t>R$ 4,134.43</t>
+  </si>
+  <si>
+    <t>R$ 16,827.86</t>
+  </si>
+  <si>
+    <t>R$ 2,486.24</t>
+  </si>
+  <si>
+    <t>R$ 6,433.60</t>
+  </si>
+  <si>
+    <t>R$ 7,244.23</t>
+  </si>
+  <si>
+    <t>R$ 50,483.59</t>
+  </si>
+  <si>
+    <t>R$ 7,916.90</t>
+  </si>
+  <si>
+    <t>R$ 7,028.52</t>
+  </si>
+  <si>
+    <t>R$ 31,972.94</t>
+  </si>
+  <si>
+    <t>R$ 4,972.49</t>
+  </si>
+  <si>
+    <t>R$ 7,398.64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,19 +179,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -205,7 +225,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,27 +257,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -289,24 +291,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -482,30 +466,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.41796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.15625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -514,188 +484,222 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>999.99</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2">
+        <v>5.1745</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2">
+        <v>1.4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>4500</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3">
+        <v>5.609287362000001</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>999.99</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
-        <f>D2*B2</f>
-        <v>4999.95</v>
-      </c>
-      <c r="F2">
-        <v>1.4</v>
-      </c>
-      <c r="G2">
-        <f>F2*E2</f>
-        <v>6999.9299999999994</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>4500</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3">
-        <v>6</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E8" si="0">D3*B3</f>
-        <v>27000</v>
-      </c>
-      <c r="F3">
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G8" si="1">F3*E3</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
       <c r="B4">
-        <v>899.99</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4">
+        <v>899.99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>5.1745</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>1.7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>799</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <v>5.1745</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5">
+        <v>1.7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>3000</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6">
+        <v>5.609287362000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6">
+        <v>1.9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>4499.95</v>
-      </c>
-      <c r="F4">
-        <v>1.7</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="1"/>
-        <v>7649.9149999999991</v>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>480.48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>5.1745</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>799</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>3995</v>
-      </c>
-      <c r="F5">
-        <v>1.7</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="1"/>
-        <v>6791.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>18000</v>
-      </c>
-      <c r="F6">
-        <v>1.9</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="1"/>
-        <v>34200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>480.48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2402.4</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="1"/>
-        <v>4804.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
-        <v>350</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>7000</v>
+      <c r="E8" t="s">
+        <v>17</v>
       </c>
       <c r="F8">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="1"/>
-        <v>8049.9999999999991</v>
+        <v>321.68</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>1.15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
